--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/126.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/126.xlsx
@@ -479,13 +479,13 @@
         <v>-0.05025946220100349</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.602087703141122</v>
+        <v>-1.604563635218928</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04260622244476744</v>
+        <v>-0.04291158215429978</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.141435735032995</v>
+        <v>-0.146565463349314</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.04738693399980972</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.582340846254844</v>
+        <v>-1.586383714367905</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07445492534516555</v>
+        <v>-0.0733908884191663</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1143893644716853</v>
+        <v>-0.1204351719166012</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.0526030720692429</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.631580886426494</v>
+        <v>-1.63507363485666</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1223822335696502</v>
+        <v>-0.1212536618596776</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1103472833681851</v>
+        <v>-0.1158988488090127</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.06947828353005982</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.726490304393122</v>
+        <v>-1.729161414841969</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1485203950979694</v>
+        <v>-0.14807337366752</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1208255286586838</v>
+        <v>-0.1267233783061975</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.08840600290331592</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.761116364033055</v>
+        <v>-1.760149916292576</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1085308653022042</v>
+        <v>-0.1091494548168753</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1114349305810039</v>
+        <v>-0.1168684445877339</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.09851634326073695</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.623104006448729</v>
+        <v>-1.6206485366195</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04418653764255333</v>
+        <v>-0.04466503945542874</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1130797805627631</v>
+        <v>-0.1177892457736948</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.09086742649912383</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.33124308490067</v>
+        <v>-1.331985234916363</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01167517269208763</v>
+        <v>-0.00923386903495026</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.106608987955096</v>
+        <v>-0.1127051640118936</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.06088129759774384</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9077115288080057</v>
+        <v>-0.9109233148250196</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01605724192578874</v>
+        <v>-0.008895454923870611</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0665517753371148</v>
+        <v>-0.07254721417014913</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.007918864105913529</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3763407746767884</v>
+        <v>-0.3843210516217829</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.06619447299657955</v>
+        <v>-0.05547225474227926</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01991044073473282</v>
+        <v>-0.02527627191924687</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.0713939683187636</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1937217304846817</v>
+        <v>0.1801033170471882</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1308677706525822</v>
+        <v>-0.1146962982003389</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06371089910348751</v>
+        <v>0.05713936927205714</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1804120304542716</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8770050050604316</v>
+        <v>0.8593649727680148</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2633356458821268</v>
+        <v>-0.2435738358141967</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1433672847751514</v>
+        <v>0.1369673230279428</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3180410626346456</v>
       </c>
       <c r="E13" t="n">
-        <v>1.57588523510915</v>
+        <v>1.552671601108207</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4730736937954435</v>
+        <v>-0.448279744596715</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2615005678670106</v>
+        <v>0.2556515128122573</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4763378770865232</v>
       </c>
       <c r="E14" t="n">
-        <v>2.304465631957691</v>
+        <v>2.276359946527746</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7070122856987582</v>
+        <v>-0.6791395550987656</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3830337322608793</v>
+        <v>0.376446462238236</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6356658122278246</v>
       </c>
       <c r="E15" t="n">
-        <v>3.040382531930615</v>
+        <v>3.008713267210045</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9575788155994933</v>
+        <v>-0.9268634064664317</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4947953859497134</v>
+        <v>0.4885685663058479</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7780944230064474</v>
       </c>
       <c r="E16" t="n">
-        <v>3.660379219696228</v>
+        <v>3.629319100375601</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.248362321059022</v>
+        <v>-1.210843214274138</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6442941480717314</v>
+        <v>0.634157464930555</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9070266436007879</v>
       </c>
       <c r="E17" t="n">
-        <v>4.255884169934403</v>
+        <v>4.223394841251634</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.50741596206181</v>
+        <v>-1.465288127289758</v>
       </c>
       <c r="G17" t="n">
-        <v>0.794712137360589</v>
+        <v>0.783766408391064</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.037630635835362</v>
       </c>
       <c r="E18" t="n">
-        <v>4.7833112191572</v>
+        <v>4.751941018069678</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.750120266451648</v>
+        <v>-1.706459337055449</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9339152404101793</v>
+        <v>0.9204699690760287</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.173486222697222</v>
       </c>
       <c r="E19" t="n">
-        <v>5.213690545437084</v>
+        <v>5.181974060142875</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.044091160631811</v>
+        <v>-1.995582252342005</v>
       </c>
       <c r="G19" t="n">
-        <v>1.07902406320289</v>
+        <v>1.065781840335387</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.305848589762158</v>
       </c>
       <c r="E20" t="n">
-        <v>5.552241596180285</v>
+        <v>5.519568107260325</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.299379747896448</v>
+        <v>-2.249310199647873</v>
       </c>
       <c r="G20" t="n">
-        <v>1.230523403628081</v>
+        <v>1.216585464308963</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.416604482054758</v>
       </c>
       <c r="E21" t="n">
-        <v>5.836517319582796</v>
+        <v>5.804294000131528</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.524022182869361</v>
+        <v>-2.471618364263897</v>
       </c>
       <c r="G21" t="n">
-        <v>1.366395882216999</v>
+        <v>1.353591236665218</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.49707332202837</v>
       </c>
       <c r="E22" t="n">
-        <v>6.040785651049593</v>
+        <v>6.010199311484477</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.728565967682385</v>
+        <v>-2.677170308324115</v>
       </c>
       <c r="G22" t="n">
-        <v>1.482517568871836</v>
+        <v>1.469143128398144</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.548637707635664</v>
       </c>
       <c r="E23" t="n">
-        <v>6.182965224257562</v>
+        <v>6.15003517022083</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.847201362873939</v>
+        <v>-2.797415925076759</v>
       </c>
       <c r="G23" t="n">
-        <v>1.582112054753015</v>
+        <v>1.568252816389963</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.571268273989352</v>
       </c>
       <c r="E24" t="n">
-        <v>6.287925541323256</v>
+        <v>6.25444615461319</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.91791102386013</v>
+        <v>-2.870485827735341</v>
       </c>
       <c r="G24" t="n">
-        <v>1.629235039206516</v>
+        <v>1.615933003612403</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.566165958671901</v>
       </c>
       <c r="E25" t="n">
-        <v>6.304282748031812</v>
+        <v>6.27222312656916</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.99625546459419</v>
+        <v>-2.948614627849782</v>
       </c>
       <c r="G25" t="n">
-        <v>1.677889544265041</v>
+        <v>1.666356706163271</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.538917075120577</v>
       </c>
       <c r="E26" t="n">
-        <v>6.290947658036153</v>
+        <v>6.260754823251363</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.057286482003503</v>
+        <v>-3.009668468536354</v>
       </c>
       <c r="G26" t="n">
-        <v>1.696411027265386</v>
+        <v>1.684903373469557</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.495978288110909</v>
       </c>
       <c r="E27" t="n">
-        <v>6.192678496255109</v>
+        <v>6.164602717188468</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.070806519245915</v>
+        <v>-3.023570205415682</v>
       </c>
       <c r="G27" t="n">
-        <v>1.70250248126482</v>
+        <v>1.691367870000739</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.44318430923524</v>
       </c>
       <c r="E28" t="n">
-        <v>6.025736454230836</v>
+        <v>5.999911522507656</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.081434296352938</v>
+        <v>-3.033495969994604</v>
       </c>
       <c r="G28" t="n">
-        <v>1.687371435451756</v>
+        <v>1.676987631308536</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.385198592579234</v>
       </c>
       <c r="E29" t="n">
-        <v>5.852740734666042</v>
+        <v>5.829080079234649</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.036066343219688</v>
+        <v>-2.990320625497326</v>
       </c>
       <c r="G29" t="n">
-        <v>1.650144309213874</v>
+        <v>1.639999755977091</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.323175524051663</v>
       </c>
       <c r="E30" t="n">
-        <v>5.657093305926609</v>
+        <v>5.635718126259345</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.005559491620198</v>
+        <v>-2.961373626847045</v>
       </c>
       <c r="G30" t="n">
-        <v>1.579204841435973</v>
+        <v>1.570091270723642</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.25757804986911</v>
       </c>
       <c r="E31" t="n">
-        <v>5.415238971862273</v>
+        <v>5.395972977817553</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.901349194665805</v>
+        <v>-2.860127994907621</v>
       </c>
       <c r="G31" t="n">
-        <v>1.504325603797457</v>
+        <v>1.495585075616874</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.188195483763414</v>
       </c>
       <c r="E32" t="n">
-        <v>5.184144632511148</v>
+        <v>5.164374952347612</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.840180450583378</v>
+        <v>-2.798551579872778</v>
       </c>
       <c r="G32" t="n">
-        <v>1.430943258343297</v>
+        <v>1.422131899302256</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.113728395189738</v>
       </c>
       <c r="E33" t="n">
-        <v>4.88830301660532</v>
+        <v>4.869718572840123</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.713257057708615</v>
+        <v>-2.674245780796738</v>
       </c>
       <c r="G33" t="n">
-        <v>1.35568783013479</v>
+        <v>1.348334012800073</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.033799695546241</v>
       </c>
       <c r="E34" t="n">
-        <v>4.624678424074275</v>
+        <v>4.609150725442643</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.636244237151176</v>
+        <v>-2.59762174296226</v>
       </c>
       <c r="G34" t="n">
-        <v>1.254893941683179</v>
+        <v>1.24753697631022</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9475178481850658</v>
       </c>
       <c r="E35" t="n">
-        <v>4.306534531238737</v>
+        <v>4.294671149121494</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.560080599909678</v>
+        <v>-2.52396000911407</v>
       </c>
       <c r="G35" t="n">
-        <v>1.163089276433317</v>
+        <v>1.155889712972487</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8558171915616357</v>
       </c>
       <c r="E36" t="n">
-        <v>3.966351222666747</v>
+        <v>3.955046617337566</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.462311189199646</v>
+        <v>-2.427797671926886</v>
       </c>
       <c r="G36" t="n">
-        <v>1.08051308529164</v>
+        <v>1.075888617113259</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7616458638304454</v>
       </c>
       <c r="E37" t="n">
-        <v>3.682327342323644</v>
+        <v>3.671469758424912</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.392350761315194</v>
+        <v>-2.359154698046963</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9946424721290811</v>
+        <v>0.9892876590784162</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.671082663305187</v>
       </c>
       <c r="E38" t="n">
-        <v>3.377411506183518</v>
+        <v>3.370942287594972</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.324351561255884</v>
+        <v>-2.291067352916859</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9038357350021231</v>
+        <v>0.8997716176309247</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5863234819969949</v>
       </c>
       <c r="E39" t="n">
-        <v>3.056843623901177</v>
+        <v>3.052795246721192</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.243971126788421</v>
+        <v>-2.213361176936487</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8145274640786434</v>
+        <v>0.8114659968877136</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5107904638801624</v>
       </c>
       <c r="E40" t="n">
-        <v>2.779564415492848</v>
+        <v>2.773030662120329</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.170946870684358</v>
+        <v>-2.139553846319576</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7467124242565245</v>
+        <v>0.7445701842324344</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.446433516444281</v>
       </c>
       <c r="E41" t="n">
-        <v>2.481046967080809</v>
+        <v>2.476134453403229</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.108466181664327</v>
+        <v>-2.079342892872461</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6871562627638704</v>
+        <v>0.6862826821515485</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.390867162011846</v>
       </c>
       <c r="E42" t="n">
-        <v>2.20276353447309</v>
+        <v>2.19981067460153</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.021072705001909</v>
+        <v>-1.993423485117142</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6137912315200453</v>
+        <v>0.614449171512749</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3426947738854151</v>
       </c>
       <c r="E43" t="n">
-        <v>1.949851716081616</v>
+        <v>1.946942928745453</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.958248092803875</v>
+        <v>-1.930542995240301</v>
       </c>
       <c r="G43" t="n">
-        <v>0.544654015636034</v>
+        <v>0.5441408854024899</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2989857765767544</v>
       </c>
       <c r="E44" t="n">
-        <v>1.748654295920477</v>
+        <v>1.745027755865001</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.904991155834666</v>
+        <v>-1.878945861434503</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4779990279063138</v>
+        <v>0.4776432995848998</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2560198790515679</v>
       </c>
       <c r="E45" t="n">
-        <v>1.533418199216458</v>
+        <v>1.532401382864097</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.819416458266911</v>
+        <v>-1.793793000991257</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4272841318180056</v>
+        <v>0.4267111888578521</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2119582345774088</v>
       </c>
       <c r="E46" t="n">
-        <v>1.338693145682107</v>
+        <v>1.336360449344339</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.758861581641792</v>
+        <v>-1.734336002703245</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3734432337547943</v>
+        <v>0.3749605881877281</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1674680882879422</v>
       </c>
       <c r="E47" t="n">
-        <v>1.182769237506939</v>
+        <v>1.181870472588677</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.726767331758471</v>
+        <v>-1.702992559940785</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3275290959864532</v>
+        <v>0.3271056848428233</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1222795431054069</v>
       </c>
       <c r="E48" t="n">
-        <v>1.00450370192403</v>
+        <v>1.00518210416531</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.664374000799672</v>
+        <v>-1.640403263601384</v>
       </c>
       <c r="G48" t="n">
-        <v>0.256115848453041</v>
+        <v>0.2561268665868901</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.07881347125882042</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8582726034978321</v>
+        <v>0.8588471204771069</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.614294221426809</v>
+        <v>-1.590139323991329</v>
       </c>
       <c r="G49" t="n">
-        <v>0.22103253625837</v>
+        <v>0.2215582586448844</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.03925507653099481</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7583680358497562</v>
+        <v>0.7592967071313236</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.564722063220565</v>
+        <v>-1.539221379436373</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1792328844731089</v>
+        <v>0.1796641657123453</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.00518248081498057</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6429389176082915</v>
+        <v>0.6438502746795246</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.52804899171338</v>
+        <v>-1.501888006907802</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1454213797284488</v>
+        <v>0.1456008179082771</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.02345604464612353</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5370105787829978</v>
+        <v>0.5365084666833029</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.483064312236167</v>
+        <v>-1.458062592513427</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1053484269192546</v>
+        <v>0.1062157114550913</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.04714799811646735</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4704075336842805</v>
+        <v>0.4680354868684804</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.441090731338003</v>
+        <v>-1.418388653551483</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07392943123897158</v>
+        <v>0.07430562180896244</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.06694833951490545</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3820861727498563</v>
+        <v>0.3765660876914548</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.391705881407193</v>
+        <v>-1.366568796040021</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04214211508430419</v>
+        <v>0.04350678966247189</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.08442097460466486</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2943361807564643</v>
+        <v>0.2864739552455673</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.359772181474245</v>
+        <v>-1.335003416581457</v>
       </c>
       <c r="G55" t="n">
-        <v>0.006795941696375945</v>
+        <v>0.00893503368222358</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1010881061826409</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2314273585354397</v>
+        <v>0.2225483166721825</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.339095079287279</v>
+        <v>-1.314993698501922</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.009384974870595125</v>
+        <v>-0.008264273256229035</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1183569490291995</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1558224980820038</v>
+        <v>0.1466884651210959</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.345940488445815</v>
+        <v>-1.321972112276209</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04551028772356721</v>
+        <v>-0.04418024156606813</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1375160414573411</v>
       </c>
       <c r="E58" t="n">
-        <v>0.09260202007496164</v>
+        <v>0.08338928615798871</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.324673129088361</v>
+        <v>-1.302166229672882</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07506249672598762</v>
+        <v>-0.07434002194931061</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1596623210963933</v>
       </c>
       <c r="E59" t="n">
-        <v>0.05683873161988871</v>
+        <v>0.04619836235989606</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.334927076654074</v>
+        <v>-1.312559477930831</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1005112378791772</v>
+        <v>-0.09931340932786732</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.184612053031256</v>
       </c>
       <c r="E60" t="n">
-        <v>0.005640611661341241</v>
+        <v>-0.007522910250096411</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.337683184135472</v>
+        <v>-1.316618873244666</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1045863733842246</v>
+        <v>-0.1040244485579203</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2114699908923986</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.03120874998742916</v>
+        <v>-0.04607536058811416</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.31744759431203</v>
+        <v>-1.296641422557117</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1357440818903717</v>
+        <v>-0.1351758609875822</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2389808862586376</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.08541482048678224</v>
+        <v>-0.09999495960739052</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.342754673744303</v>
+        <v>-1.321311811254823</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1427012464065208</v>
+        <v>-0.142817723821497</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2663357160362951</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1266462513692538</v>
+        <v>-0.1434111290302274</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.383321868557585</v>
+        <v>-1.361161253348793</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1620317752352145</v>
+        <v>-0.1617075272962266</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2931436228616623</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1787919308388242</v>
+        <v>-0.1980532028261808</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.425715712561137</v>
+        <v>-1.402546938105152</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.177324945017772</v>
+        <v>-0.1774429964518696</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3188218600703487</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2298609812294251</v>
+        <v>-0.2511133874052269</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.458203467224784</v>
+        <v>-1.43542426250132</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2028114626298727</v>
+        <v>-0.2028571091843905</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3433307910882462</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.2965206910165092</v>
+        <v>-0.3179037407793791</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.499050050432097</v>
+        <v>-1.477539505120402</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.208089148743594</v>
+        <v>-0.2088368078262118</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3668106362794707</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.2819924945269038</v>
+        <v>-0.3052454790058789</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.545018491860123</v>
+        <v>-1.523899090300071</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2411089218702398</v>
+        <v>-0.2419148196603457</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3893703573038658</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3117398819003656</v>
+        <v>-0.3324744357852595</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.578422325652366</v>
+        <v>-1.554644405796437</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2515336505106142</v>
+        <v>-0.2522199228475013</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4113568920468983</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3404405465581623</v>
+        <v>-0.360529752603323</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.638778875868202</v>
+        <v>-1.61404159135784</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.259002371241186</v>
+        <v>-0.2582562861776895</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4325641842874431</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.367068228033206</v>
+        <v>-0.3869874400132662</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.655838882114419</v>
+        <v>-1.632082211516628</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2694806165316847</v>
+        <v>-0.2686101839576054</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4522107253290045</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3757269072194811</v>
+        <v>-0.3936974835273711</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.69600470205177</v>
+        <v>-1.670366291594464</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2885168037846952</v>
+        <v>-0.2872119419331369</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4703568299731221</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3747510153642747</v>
+        <v>-0.391885787518754</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.729661952922543</v>
+        <v>-1.703042928552666</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2860235574965549</v>
+        <v>-0.2847973966010617</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4869906750630407</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3372138073594959</v>
+        <v>-0.3526407687673639</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.752599346567697</v>
+        <v>-1.727835303732273</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2894061245882301</v>
+        <v>-0.2870891684416755</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5015770153596372</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.2953354546181698</v>
+        <v>-0.3110866639650258</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.785794622826368</v>
+        <v>-1.760252227535461</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2943501186482356</v>
+        <v>-0.2918253919776693</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5138989679087801</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2339156544858956</v>
+        <v>-0.2477607266768565</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.803970608629588</v>
+        <v>-1.779578821316351</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.299440496486522</v>
+        <v>-0.2955542432760306</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5226410074762859</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1267816170136856</v>
+        <v>-0.1401497614108924</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.811671497180551</v>
+        <v>-1.787704695030066</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2832422657092166</v>
+        <v>-0.2785910392057731</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.526514278529836</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.04224419804686828</v>
+        <v>-0.05363380040860006</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.797944476423688</v>
+        <v>-1.773994201473977</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2698945835605868</v>
+        <v>-0.26514261983338</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5247212710779586</v>
       </c>
       <c r="E78" t="n">
-        <v>0.09223684763881988</v>
+        <v>0.08154296172870301</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.801581247603453</v>
+        <v>-1.777877306646225</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2437611440896314</v>
+        <v>-0.2374320132028814</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5166424218308462</v>
       </c>
       <c r="E79" t="n">
-        <v>0.220080254689983</v>
+        <v>0.2091723021793693</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.829320973587696</v>
+        <v>-1.806606303648206</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2267947919811313</v>
+        <v>-0.2208497217599786</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5021130934736451</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3676587134840142</v>
+        <v>0.3557418147166467</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.783108559195868</v>
+        <v>-1.763522252259963</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2009981926021344</v>
+        <v>-0.1946281372182305</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4811741186556312</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4965614354038128</v>
+        <v>0.4856755191608972</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.759787891894677</v>
+        <v>-1.741880276351639</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1718489324947669</v>
+        <v>-0.1660250617459544</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4540393267219357</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6775500240665724</v>
+        <v>0.6643015051225845</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.71857377522254</v>
+        <v>-1.702459754468224</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.145487260251223</v>
+        <v>-0.1400663383974634</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4212629914735884</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8489150598216996</v>
+        <v>0.8375223094217251</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.646368796071114</v>
+        <v>-1.633164349662522</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1289238570377759</v>
+        <v>-0.1213292147775</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3848718891069423</v>
       </c>
       <c r="E84" t="n">
-        <v>1.032851786298655</v>
+        <v>1.019260131186224</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.563145683070582</v>
+        <v>-1.55354652745933</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1133174574500795</v>
+        <v>-0.1054379177288483</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3463248632662794</v>
       </c>
       <c r="E85" t="n">
-        <v>1.181042538530872</v>
+        <v>1.166356940129137</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.458720532506131</v>
+        <v>-1.448597228527486</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.09484004698513077</v>
+        <v>-0.08544315283096567</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3075814669380616</v>
       </c>
       <c r="E86" t="n">
-        <v>1.341534250196055</v>
+        <v>1.328002407810232</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.34007726721897</v>
+        <v>-1.331723160732667</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06482822439929055</v>
+        <v>-0.0553353150787261</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2711759275468264</v>
       </c>
       <c r="E87" t="n">
-        <v>1.484500832964675</v>
+        <v>1.468626850126357</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.208042247247783</v>
+        <v>-1.201562010525388</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.04149496494512916</v>
+        <v>-0.03141337247319825</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2388102793537648</v>
       </c>
       <c r="E88" t="n">
-        <v>1.571904540751381</v>
+        <v>1.559170726060058</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.060067135635184</v>
+        <v>-1.055754323242821</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.02708324587050006</v>
+        <v>-0.01732117928019319</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2131022248343451</v>
       </c>
       <c r="E89" t="n">
-        <v>1.677944634934287</v>
+        <v>1.664263260731941</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9113136715671022</v>
+        <v>-0.9101394533026119</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.003173895417942611</v>
+        <v>0.006827422078801959</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1958839975980104</v>
       </c>
       <c r="E90" t="n">
-        <v>1.720976743691526</v>
+        <v>1.708164228044138</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7167680562125798</v>
+        <v>-0.7190551059958298</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.002934644511504907</v>
+        <v>0.008210984886425264</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1877975900310554</v>
       </c>
       <c r="E91" t="n">
-        <v>1.73513976774499</v>
+        <v>1.725801112298313</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5311801836773796</v>
+        <v>-0.5341157293386054</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01967748590478032</v>
+        <v>-0.00999097223229589</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1896692368002827</v>
       </c>
       <c r="E92" t="n">
-        <v>1.706461139354891</v>
+        <v>1.698343922746343</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3660608557955736</v>
+        <v>-0.3701344172814998</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02286644864453552</v>
+        <v>-0.01327437611932913</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2009012260566124</v>
       </c>
       <c r="E93" t="n">
-        <v>1.66124901411465</v>
+        <v>1.655014324375178</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2131763785436378</v>
+        <v>-0.2176591850011021</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03644551160399655</v>
+        <v>-0.02858013805485701</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2185676725677357</v>
       </c>
       <c r="E94" t="n">
-        <v>1.560716412837175</v>
+        <v>1.556658591542462</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.07346486731786743</v>
+        <v>-0.07925568366513265</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.04344674865554201</v>
+        <v>-0.03478806946926693</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2392813790687935</v>
       </c>
       <c r="E95" t="n">
-        <v>1.491736598865294</v>
+        <v>1.486739088155164</v>
       </c>
       <c r="F95" t="n">
-        <v>0.03317807618849677</v>
+        <v>0.02741559218541496</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07754944693764271</v>
+        <v>-0.07027747859723353</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.258020596931543</v>
       </c>
       <c r="E96" t="n">
-        <v>1.406720678085601</v>
+        <v>1.402599896026036</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1161855485694098</v>
+        <v>0.1093432874491158</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1063980693928417</v>
+        <v>-0.09937164803535545</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2702719084752491</v>
       </c>
       <c r="E97" t="n">
-        <v>1.326001829507059</v>
+        <v>1.3225169511725</v>
       </c>
       <c r="F97" t="n">
-        <v>0.179421766767665</v>
+        <v>0.1724882125383354</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1268477258167802</v>
+        <v>-0.1190358689177649</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2780220966992316</v>
       </c>
       <c r="E98" t="n">
-        <v>1.232209178106994</v>
+        <v>1.227877477485174</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2131891989769286</v>
+        <v>0.2054481729383718</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1469101735368788</v>
+        <v>-0.1396649635215318</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2841112796920935</v>
       </c>
       <c r="E99" t="n">
-        <v>1.14716807302136</v>
+        <v>1.141629099733503</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2335255260241335</v>
+        <v>0.2262661498366947</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1491893532245222</v>
+        <v>-0.1420307142608467</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2918860951799006</v>
       </c>
       <c r="E100" t="n">
-        <v>1.058612183237862</v>
+        <v>1.053421068175813</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2455274218240513</v>
+        <v>0.2382586015218847</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1635743139740892</v>
+        <v>-0.1565573367313307</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3031605672282431</v>
       </c>
       <c r="E101" t="n">
-        <v>0.96817534060441</v>
+        <v>0.962825249611109</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2419496763613348</v>
+        <v>0.2324976915379242</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.177937238455958</v>
+        <v>-0.1703095417941348</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3220525950433475</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9063651837300534</v>
+        <v>0.9017816400488258</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2476885500775971</v>
+        <v>0.2386615504169377</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2043004847186232</v>
+        <v>-0.1957881893106291</v>
       </c>
     </row>
   </sheetData>
